--- a/Main Codes/data/login_data.xlsx
+++ b/Main Codes/data/login_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,84 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>khaled</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1012000690</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1111</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>pharmacist</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>pharmacist</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>it</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1012000690</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1111</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>it</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>reception</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1012000690</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1111</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>receptionist</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>reception</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
